--- a/data/trans_bre/P23_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_5_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>11,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>306,19%</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>629,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>249,76%</t>
+          <t>281,85%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>362,4%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>634,46%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 10,68</t>
+          <t>3,24; 21,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 7,1</t>
+          <t>-1,25; 13,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 8,33</t>
+          <t>-0,52; 13,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,63; —</t>
+          <t>1,89; 19,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-72,69; 488,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,3; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-32,42%</t>
+          <t>-34,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,86%</t>
+          <t>-44,57%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-57,5%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33,92%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,91</t>
+          <t>-6,5; 2,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 1,89</t>
+          <t>-21,61; 1,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 2,49</t>
+          <t>-10,46; 0,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,34; 167,33</t>
+          <t>-2,54; 5,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,25; 45,61</t>
+          <t>-78,86; 111,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,6; 116,55</t>
+          <t>-88,06; 35,51</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-88,65; 39,27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-69,7; 363,77</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,69%</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-53,86%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>-70,12%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42,17%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-56,14%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 2,1</t>
+          <t>-3,36; 3,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 0,75</t>
+          <t>-18,02; 0,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 4,59</t>
+          <t>-3,23; 5,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-77,34; 218,32</t>
+          <t>-15,72; 0,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 43,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-55,84; 387,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-65,51; 614,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-86,48; 9,64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-30,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 142,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,11; 31,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 130,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,54</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-45,82%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-15,22%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 3,32</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-11,68; 0,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 2,37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 3,51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-43,75; 154,65</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-80,43; 22,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-61,33; 82,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-49,89; 117,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_5_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>11,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,99</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,44</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>629,89%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>281,85%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>362,4%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>634,46%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.080665460250598</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.467506194337656</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.634609821247226</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.751031344526341</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2.96169668157735</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.941717633675788</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.376283481941316</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>6.887311477941909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,24; 21,89</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 13,35</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 13,37</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 19,62</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.8662645256073978</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.393497249604509</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.8700228057301781</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.145430678439631</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.24087170598874</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.67643216959714</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.96568005732866</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>20.73651285617668</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,76</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,6</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-34,25%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-44,57%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-57,5%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>33,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,5; 2,4</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-21,61; 1,74</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,46; 0,56</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 5,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-78,86; 111,45</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-88,06; 35,51</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-88,65; 39,27</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-69,7; 363,77</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.6257413119691178</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.577873367258402</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.565091974185095</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.9274802229608504</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1315140336292002</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3667338739604041</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.5369148427303806</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.331006641984038</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,6</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,85</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,12%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-70,12%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>42,17%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-56,14%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.196361969463288</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.28243422158854</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.954053165992409</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.456172780899135</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.7457471696102913</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8282472339122519</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8764799925249487</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6744702205921297</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 3,23</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,02; 0,34</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,23; 5,67</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-15,72; 0,06</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-65,51; 614,63</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-86,48; 9,64</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.132347088976138</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.535917811923313</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.8251699982582499</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.873478524324769</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.764944429273654</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.605294581350767</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5209311670844289</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.653590820128327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +811,203 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.1345145935776292</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.740582683948509</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.277228238033565</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.344305567653698</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.06724165257594567</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.7176196722870531</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4182961748047488</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5436283144880765</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.989660228953722</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.49622973790485</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.288854532298342</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-14.75487745942973</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.6702029532354199</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8566649395377208</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.277867911627794</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.2503647486011476</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.782847425429268</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.3327079114724654</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>6.160015880602848</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1811202168659429</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,54</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>16,65%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-45,82%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-15,22%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 3,32</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,68; 0,96</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 2,37</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 3,51</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-43,75; 154,65</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-80,43; 22,53</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-61,33; 82,98</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-49,89; 117,43</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.9277372492385596</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.113065680704137</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.6518047972943024</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.33156156356412</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.267798083347495</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4129481153280672</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1397247396753738</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.0678106487491025</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.882665344695639</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-10.49036226213803</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.235796528629067</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.604461203109509</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4111418338151622</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.7620768068613819</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.6084456929574233</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4841271117739313</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.709515941979203</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.262498157678616</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.382522891169741</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.72669947425562</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.769218139459232</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.327707399169996</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8831969775214981</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.290906899427849</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
